--- a/stats/Stats_Frsq.xlsx
+++ b/stats/Stats_Frsq.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +577,34 @@
         <v>274.0274725274725</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Lugares Encontrados</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>10832</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Palabra incluida con Mayor Frecuencia</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mexico City</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
